--- a/SGCM/16  GUIAS DE USUARIO/Matriz de guías.xlsx
+++ b/SGCM/16  GUIAS DE USUARIO/Matriz de guías.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SGCM\16  GUIAS DE USUARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\SGCM\16  GUIAS DE USUARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>MODULOS</t>
   </si>
@@ -80,13 +80,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Actualizada faltan imágenes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizada </t>
+    <t>ACTUALIZADA</t>
   </si>
 </sst>
 </file>
@@ -175,13 +169,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,38 +459,38 @@
   <dimension ref="C1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
@@ -525,7 +519,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
@@ -538,7 +532,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -551,14 +545,14 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -567,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -586,29 +580,29 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
